--- a/Data/EC/NIT-9004410481.xlsx
+++ b/Data/EC/NIT-9004410481.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDDC374-FF7F-4EBF-9ED6-ACDDD53A5840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA309C7C-94D6-4F39-BC99-04C3C1C7DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB8EC8C1-F836-4899-AE69-7F355A7459E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF780267-090D-4B5E-993C-041F0B135256}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,121 +65,121 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79566378</t>
+  </si>
+  <si>
+    <t>RICARDO QUINTERO SIERRA</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>45528490</t>
   </si>
   <si>
     <t>LADY PAOLA VARGAS DE ORO</t>
   </si>
   <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>79566378</t>
-  </si>
-  <si>
-    <t>RICARDO QUINTERO SIERRA</t>
-  </si>
-  <si>
-    <t>1611</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -278,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -291,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -493,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6047D05B-4B7A-8830-DEB1-4F83D51164D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912D8E40-DA47-A870-F367-3652643A481F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14438C9-8853-4A42-8F7F-DDDB8DE9F25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C45192-532C-4689-BD75-78154FD6E0D7}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1122,10 +1122,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>165155</v>
+        <v>5145</v>
       </c>
       <c r="G16" s="18">
-        <v>4760950</v>
+        <v>3858750</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1136,13 +1136,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>165155</v>
@@ -1159,13 +1159,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>165155</v>
@@ -1182,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>165155</v>
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>165155</v>
@@ -1228,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>165155</v>
@@ -1251,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>165155</v>
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>165155</v>
@@ -1297,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>165155</v>
@@ -1320,13 +1320,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>165155</v>
@@ -1343,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>165155</v>
@@ -1366,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>165155</v>
@@ -1389,13 +1389,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>165155</v>
@@ -1412,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>165155</v>
@@ -1435,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>165155</v>
@@ -1458,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>165155</v>
@@ -1481,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>165155</v>
@@ -1504,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>165155</v>
@@ -1527,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>165155</v>
@@ -1550,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>165155</v>
@@ -1573,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>165155</v>
@@ -1596,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>165155</v>
@@ -1619,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>165155</v>
@@ -1642,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>165155</v>
@@ -1665,13 +1665,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>165155</v>
@@ -1688,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>165155</v>
@@ -1711,13 +1711,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>165155</v>
@@ -1734,13 +1734,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>165155</v>
@@ -1757,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>165155</v>
@@ -1780,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>165155</v>
@@ -1803,13 +1803,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>165155</v>
@@ -1826,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>165155</v>
@@ -1849,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>165155</v>
@@ -1872,13 +1872,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>165155</v>
@@ -1895,19 +1895,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="24">
-        <v>5145</v>
+        <v>165155</v>
       </c>
       <c r="G50" s="24">
-        <v>3858750</v>
+        <v>4760950</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
